--- a/03 PE/008 静态链接库 动态链接库 def文件 句柄.xlsx
+++ b/03 PE/008 静态链接库 动态链接库 def文件 句柄.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\03 PE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA73C279-8BB1-4765-BCD8-D9F4014DFAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36BAA6D-1814-4691-BE3C-F5B7C7562B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="145">
   <si>
     <t>代码复用的实现：</t>
   </si>
@@ -43,9 +43,6 @@
     <t>2、创建一个动态链接库，使用两种方式进行导出(_declspec(dllexport)与.def文件).</t>
   </si>
   <si>
-    <t>3、使用.def导出</t>
-  </si>
-  <si>
     <t>3、分别使用隐式链接和显示链接使用一个DLL文件.</t>
   </si>
   <si>
@@ -364,9 +361,6 @@
     <t>@16</t>
   </si>
   <si>
-    <t>4、使用序号导出的好处：</t>
-  </si>
-  <si>
     <t>名字是一段程序就精华的注释,通过名字可以直接猜测到函数的功能</t>
   </si>
   <si>
@@ -477,6 +471,21 @@
   </si>
   <si>
     <t>3、*.def文件(工程目录下 新增该文件)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#pragma comment(linker, "/DEF:DynamicLinkLibrary.def")</t>
+  </si>
+  <si>
+    <t>5、使用序号导出的好处：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、编译即可</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、使用.def导出dll</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -494,6 +503,7 @@
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -501,6 +511,7 @@
       <sz val="12"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -508,11 +519,13 @@
       <sz val="12"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -573,7 +586,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -620,6 +633,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1246,7 +1262,7 @@
   <dimension ref="B4:H25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1277,16 +1293,16 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="C10" s="14"/>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -1295,7 +1311,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1306,7 +1322,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1317,7 +1333,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1328,7 +1344,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
@@ -1339,7 +1355,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1350,7 +1366,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1371,7 +1387,7 @@
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1390,7 +1406,7 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1425,40 +1441,40 @@
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C6" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N8" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N10" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1471,7 +1487,7 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1482,12 +1498,12 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="N12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1498,7 +1514,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="N13" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
@@ -1512,12 +1528,12 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="N14" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1528,12 +1544,12 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="N15" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1546,7 +1562,7 @@
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1581,7 +1597,7 @@
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C20" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -1594,7 +1610,7 @@
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1607,7 +1623,7 @@
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1620,7 +1636,7 @@
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1655,7 +1671,7 @@
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1668,7 +1684,7 @@
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C29" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1681,7 +1697,7 @@
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C30" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1694,7 +1710,7 @@
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C31" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1708,7 +1724,7 @@
     <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -1720,7 +1736,7 @@
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C33" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1733,7 +1749,7 @@
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C34" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -1746,7 +1762,7 @@
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -1760,7 +1776,7 @@
     <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -1772,7 +1788,7 @@
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -1785,7 +1801,7 @@
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C38" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -1798,7 +1814,7 @@
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C39" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -1812,7 +1828,7 @@
     <row r="40" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -1824,7 +1840,7 @@
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C41" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -1837,7 +1853,7 @@
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C42" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -1850,7 +1866,7 @@
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C43" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -1864,7 +1880,7 @@
     <row r="44" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C44" s="5"/>
       <c r="D44" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -1876,7 +1892,7 @@
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C45" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -1889,22 +1905,22 @@
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C48" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D55" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
@@ -1912,7 +1928,7 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D57" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
@@ -1920,17 +1936,17 @@
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D59" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.25">
@@ -1938,7 +1954,7 @@
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1957,7 +1973,7 @@
   </sheetPr>
   <dimension ref="B4:M89"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A56" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A66" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
@@ -1965,75 +1981,75 @@
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
         <v>43</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -2044,7 +2060,7 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -2056,10 +2072,10 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2070,7 +2086,7 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -2082,10 +2098,10 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2096,11 +2112,11 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -2110,81 +2126,81 @@
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G27" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G28" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C34" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C36" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C38" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C40" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C41" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C42" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C43" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L43" t="s">
         <v>60</v>
-      </c>
-      <c r="L43" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -2196,38 +2212,38 @@
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
       <c r="C50" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
       <c r="C51" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
       <c r="C52" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
       <c r="C53" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D53" s="8"/>
     </row>
@@ -2238,7 +2254,7 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -2246,28 +2262,28 @@
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="8"/>
       <c r="C56" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="8"/>
       <c r="C57" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="C58" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
       <c r="C59" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D59" s="8"/>
     </row>
@@ -2278,17 +2294,17 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="D61" s="8"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="8"/>
       <c r="C62" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D62" s="8"/>
     </row>
@@ -2299,7 +2315,7 @@
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -2307,37 +2323,37 @@
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" s="8"/>
       <c r="C65" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D65" s="8"/>
       <c r="I65" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" s="8"/>
       <c r="C66" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D66" s="8"/>
       <c r="I66" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" s="8"/>
       <c r="C67" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D67" s="8"/>
       <c r="I67" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" s="8"/>
       <c r="C68" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D68" s="8"/>
     </row>
@@ -2353,21 +2369,21 @@
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" s="8"/>
       <c r="C72" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D72" s="8"/>
       <c r="H72" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
@@ -2377,11 +2393,11 @@
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" s="8"/>
       <c r="C73" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D73" s="8"/>
       <c r="H73" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I73" s="12"/>
       <c r="J73" s="12"/>
@@ -2391,50 +2407,50 @@
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
       <c r="C74" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D74" s="8"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="C75" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D75" s="8"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -2451,7 +2467,7 @@
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="8"/>
       <c r="C87" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -2467,7 +2483,7 @@
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="8"/>
       <c r="C89" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -2490,132 +2506,135 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B4:I46"/>
+  <dimension ref="B4:I48"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -2624,7 +2643,7 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -2633,10 +2652,10 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -2644,23 +2663,23 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -2668,42 +2687,26 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="5"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="5"/>
-      <c r="C44" s="5" t="s">
-        <v>114</v>
-      </c>
+      <c r="B44" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -2724,7 +2727,7 @@
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
       <c r="C46" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -2733,10 +2736,32 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>